--- a/data/unchecked/manual_collect/china/xianggang/xianggangCaseStatistics_20200627.xlsx
+++ b/data/unchecked/manual_collect/china/xianggang/xianggangCaseStatistics_20200627.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pekon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\xianggang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683EE959-ABD9-4848-B16D-1B345EDD8471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="11028"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10307,7 +10308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
@@ -10734,50 +10735,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.8203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.52734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.64453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.3515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" style="12" customWidth="1"/>
     <col min="7" max="7" width="15" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="12" customWidth="1"/>
-    <col min="9" max="22" width="12.453125" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.6328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.29296875" style="12" customWidth="1"/>
+    <col min="9" max="22" width="12.46875" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.64453125" style="12" customWidth="1"/>
     <col min="25" max="25" width="7" style="12" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="13.81640625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.6328125" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.81640625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
+    <col min="26" max="26" width="17.8203125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="13.8203125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.64453125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="31.8203125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.05859375" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="20.6328125" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.81640625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="20.81640625" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.81640625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.81640625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="20.64453125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.8203125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.8203125" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.46875" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.8203125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.8203125" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.81640625" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.81640625" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.81640625" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.8203125" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.8203125" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.8203125" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.46875" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.81640625" style="12"/>
+    <col min="46" max="46" width="5.05859375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.8203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="11" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="16.2">
+    <row r="2" spans="1:46" ht="15.75">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10946,11 +10947,11 @@
         <v>4</v>
       </c>
       <c r="P2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="Q2"/>
       <c r="R2">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="S2">
         <v>4</v>
@@ -10988,7 +10989,7 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" spans="1:46" ht="16.2">
+    <row r="3" spans="1:46" ht="15.75">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -11023,11 +11024,11 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="Q3"/>
       <c r="R3">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -11068,34 +11069,34 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:X1048576 I4:V1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:X1048576 I4:V1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -11108,7 +11109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -11116,10 +11117,10 @@
       <selection pane="bottomLeft" activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
